--- a/Arabic Egypt Customer Reviews/comment_history.xlsx
+++ b/Arabic Egypt Customer Reviews/comment_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>review</t>
   </si>
@@ -31,7 +31,71 @@
     <t>المنتج سيئ جدا</t>
   </si>
   <si>
+    <t>التطبيق سريع و سهل الاستخدام</t>
+  </si>
+  <si>
+    <t>التطبيق سريع وسهل الاستخدام، وعجبني إن الطلب بيتابع لحظة بلحظة والمندوب بيتواصل بأدب.</t>
+  </si>
+  <si>
+    <t>أوقات التوصيل أحيانًا أطول من المتوقع، خصوصًا في أوقات الذروة، وده بيحتاج تحسين.</t>
+  </si>
+  <si>
+    <t>التطبيق فيه فلترة ممتازة بتساعدني ألاقي الشقة اللي تناسبني بسهولة، وواجهة المستخدم جذابة جدًا.</t>
+  </si>
+  <si>
+    <t>بعض الإعلانات قديمة ومش محدثة، وده بيضيع وقت المستخدم في التواصل مع أصحاب عقارات مش متاحة</t>
+  </si>
+  <si>
+    <t>خدمة العملاء ممتازة، حصلتلي مشكلة وتم حلها بسرعة، وحسيت إنهم فعلاً مهتمين.</t>
+  </si>
+  <si>
+    <t>التطبيق بيعلق أحيانًا وقت الدفع، وده حصللي مرتين وخوفني من إني أكرر الطلب.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عجبني إن التطبيق بيتيح التواصل المباشر مع المعلن، وده بيختصر وقت كتير في الأسئلة والمفاوضات.
+</t>
+  </si>
+  <si>
+    <t>التقييمات غير موجودة أو قليلة على الإعلانات، فمش بعرف هل المعلن موثوق ولا لأ.</t>
+  </si>
+  <si>
+    <t>عروض الكوبونات والتخفيضات ممتازة وبتخلي التطبيق منافس قوي.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد المطاعم المتاحة محدود في منطقتي، ياريت يتم التوسع أكتر.
+</t>
+  </si>
+  <si>
+    <t>بعض الإعلانات قديمة ومش محدثة، وده بيضيع وقت المستخدم في التواصل مع أصحاب عقارات مش متاحة.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التطبيق سريع وسهل الاستخدام، وعجبني إن الطلب بيتابع لحظة بلحظة والمندوب بيتواصل بأدب.
+</t>
+  </si>
+  <si>
+    <t>التطبيق ممتاز</t>
+  </si>
+  <si>
+    <t>خدمة سيئة جدا</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> التطبيق فيه فلترة ممتازة بتساعدني ألاقي الشقة اللي تناسبني بسهولة، وواجهة المستخدم جذابة جدًا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أوقات التوصيل أحيانًا أطول من المتوقع، خصوصًا في أوقات الذروة، وده بيحتاج تحسين.
+</t>
+  </si>
+  <si>
+    <t>خدمة العملاء ممتازة، حصلتلي مشكلة وتم حلها بسرعة، وحسيت إنهم فعلاً مهتمين</t>
+  </si>
+  <si>
+    <t>التطبيق بيعلق أحيانًا وقت الدفع، وده حصللي مرتين وخوفني من إني أكرر الطلب</t>
+  </si>
+  <si>
     <t>negative</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
 </sst>
 </file>
@@ -393,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,13 +482,377 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>0.06023964658379555</v>
       </c>
       <c r="D2" s="2">
-        <v>45821.27450684654</v>
+        <v>45821.27450685185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0.9898042678833008</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45821.73183489584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0.9814627170562744</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45821.73914052083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0.2078934013843536</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45821.73923769676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.90716952085495</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45821.73953600694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>0.01295450050383806</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45821.739613125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.9823704361915588</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45821.73970538194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0.1093268468976021</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45821.73977990741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0.7886249423027039</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45821.74306530093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0.7886249423027039</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45821.7439044213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>0.04636697843670845</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45821.74399275463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0.9873037338256836</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45821.74407788194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>0.024005226790905</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45821.74414424768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0.024005226790905</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45821.74616310185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0.9823704361915588</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45821.74624644676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>0.9814627170562744</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45821.74632966435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>0.01295450050383806</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45821.74640605324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>0.01295450050383806</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45821.74768759259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>0.9814627170562744</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45821.74776346065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.9823704361915588</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45821.74783707176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0.9746707081794739</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45821.75076554398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>0.04341797158122063</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45821.75097178241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0.90716952085495</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45821.75203230324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.90716952085495</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45821.75208715278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.2078934013843536</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45821.75218125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9823704361915588</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45821.75229402778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>0.1093268468976021</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45821.75240651714</v>
       </c>
     </row>
   </sheetData>
